--- a/Xls/UnidadesC500vs.xlsx
+++ b/Xls/UnidadesC500vs.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552"/>
   </bookViews>
   <sheets>
-    <sheet name="pm_caroni_cc" sheetId="1" r:id="rId1"/>
+    <sheet name="UC Suelos 1-500.000" sheetId="1" r:id="rId1"/>
+    <sheet name="UC Suelos 1-250.000" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database">pm_caroni_cc!$A$1:$A$63</definedName>
+    <definedName name="_xlnm.Database">'UC Suelos 1-500.000'!$A$1:$A$63</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="342">
   <si>
     <t>UNISUELO</t>
   </si>
@@ -281,6 +282,768 @@
   </si>
   <si>
     <t>Cuerpos de agua</t>
+  </si>
+  <si>
+    <t>UNI_MAPA</t>
+  </si>
+  <si>
+    <t>AUE-Pe</t>
+  </si>
+  <si>
+    <t>Kanhaplustalfs moderadamente profundos</t>
+  </si>
+  <si>
+    <t>Ustorthents esqueleticos</t>
+  </si>
+  <si>
+    <t>AUR1-Lo</t>
+  </si>
+  <si>
+    <t>Haplustalfs esqueleticos</t>
+  </si>
+  <si>
+    <t>Kahnaplohumults esqueleticos</t>
+  </si>
+  <si>
+    <t>Cuerpo de aguas</t>
+  </si>
+  <si>
+    <t>E1-Va</t>
+  </si>
+  <si>
+    <t>Troporthents esqueleticos</t>
+  </si>
+  <si>
+    <t>Tropaquents</t>
+  </si>
+  <si>
+    <t>ER1-Al</t>
+  </si>
+  <si>
+    <t>Troporthents superficiales</t>
+  </si>
+  <si>
+    <t>ER1a-Pm</t>
+  </si>
+  <si>
+    <t>Troporthents muy superficiales</t>
+  </si>
+  <si>
+    <t>ER1-Pm</t>
+  </si>
+  <si>
+    <t>ER2-Al</t>
+  </si>
+  <si>
+    <t>ER3-Al</t>
+  </si>
+  <si>
+    <t>ER4-Al</t>
+  </si>
+  <si>
+    <t>Quartzipsamments moderadamente profundos</t>
+  </si>
+  <si>
+    <t>ER6-Al</t>
+  </si>
+  <si>
+    <t>ER7a-Al</t>
+  </si>
+  <si>
+    <t>ER7-Al</t>
+  </si>
+  <si>
+    <t>ERI1-Al</t>
+  </si>
+  <si>
+    <t>Dystropepts</t>
+  </si>
+  <si>
+    <t>ERU1a-Al</t>
+  </si>
+  <si>
+    <t>Tropudults moderadamente profundos</t>
+  </si>
+  <si>
+    <t>ERU1-Al</t>
+  </si>
+  <si>
+    <t>ERU1b-Al</t>
+  </si>
+  <si>
+    <t>ERU1-Pm</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults moderadamente profundos</t>
+  </si>
+  <si>
+    <t>ERU2-Al</t>
+  </si>
+  <si>
+    <t>Kanhapludults moderadamente profundos</t>
+  </si>
+  <si>
+    <t>ERU2-Pm</t>
+  </si>
+  <si>
+    <t>ERU3a-Al</t>
+  </si>
+  <si>
+    <t>ERU3-Al</t>
+  </si>
+  <si>
+    <t>EU1-Pe</t>
+  </si>
+  <si>
+    <t>Kanhaplustults esqueleticos</t>
+  </si>
+  <si>
+    <t>EU1-Va</t>
+  </si>
+  <si>
+    <t>Tropofluventes inundables</t>
+  </si>
+  <si>
+    <t>EU2-Pe</t>
+  </si>
+  <si>
+    <t>EU2-Va</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults esqueleticos</t>
+  </si>
+  <si>
+    <t>EUR1-Al</t>
+  </si>
+  <si>
+    <t>EUR1a-Lo</t>
+  </si>
+  <si>
+    <t>Paleudults moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>EUR1-Lo</t>
+  </si>
+  <si>
+    <t>Ustorthents muy superficiales</t>
+  </si>
+  <si>
+    <t>Kandiustults  esqueleticos</t>
+  </si>
+  <si>
+    <t>EUR1-Mo</t>
+  </si>
+  <si>
+    <t>EUR2-Mo</t>
+  </si>
+  <si>
+    <t>Haplohumults moderadamente profundos</t>
+  </si>
+  <si>
+    <t>OUR1-Mo</t>
+  </si>
+  <si>
+    <t>Haplustox moderadamente profundos</t>
+  </si>
+  <si>
+    <t>Haplohumults  moderadamente profundos</t>
+  </si>
+  <si>
+    <t>RE1-Al</t>
+  </si>
+  <si>
+    <t>RE1-Pm</t>
+  </si>
+  <si>
+    <t>RE2a-Al</t>
+  </si>
+  <si>
+    <t>RE2-Al</t>
+  </si>
+  <si>
+    <t>Quartzipsamments superficiales</t>
+  </si>
+  <si>
+    <t>RE3-Al</t>
+  </si>
+  <si>
+    <t>RE4-Al</t>
+  </si>
+  <si>
+    <t>RE5-Al</t>
+  </si>
+  <si>
+    <t>RE6a-Al</t>
+  </si>
+  <si>
+    <t>Quartziosamments moderadamente profundos</t>
+  </si>
+  <si>
+    <t>RE6-Al</t>
+  </si>
+  <si>
+    <t>RE7-Al</t>
+  </si>
+  <si>
+    <t>RE9-Al</t>
+  </si>
+  <si>
+    <t>REH3-Al</t>
+  </si>
+  <si>
+    <t>Troporthensts muy superficiales</t>
+  </si>
+  <si>
+    <t>Tropofibritts</t>
+  </si>
+  <si>
+    <t>REI1-Al</t>
+  </si>
+  <si>
+    <t>Dystropepts moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>REU1a-Pm</t>
+  </si>
+  <si>
+    <t>REU1-Pm</t>
+  </si>
+  <si>
+    <t>RHE1-Al</t>
+  </si>
+  <si>
+    <t>RUE3-Lo</t>
+  </si>
+  <si>
+    <t>Kanhaplustults ligeramente esqueleticos</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Sin informacion</t>
+  </si>
+  <si>
+    <t>Kanhapludults esqueleticos</t>
+  </si>
+  <si>
+    <t>U10-Pe</t>
+  </si>
+  <si>
+    <t>Kandiudults moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>U11-Pe</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults moderadamente  profundos</t>
+  </si>
+  <si>
+    <t>Kandihumults esqueleticos</t>
+  </si>
+  <si>
+    <t>U13a-Lo</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>U13-Pe</t>
+  </si>
+  <si>
+    <t>Haplohumults esqueleticos</t>
+  </si>
+  <si>
+    <t>Haplohumults ligeramente esqueleticos</t>
+  </si>
+  <si>
+    <t>Kandihumults ligeramente esqueleticos</t>
+  </si>
+  <si>
+    <t>U15-Lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanhaplohumults ligeramente esqueleticos </t>
+  </si>
+  <si>
+    <t>U16a-Lo</t>
+  </si>
+  <si>
+    <t>U16-Lo</t>
+  </si>
+  <si>
+    <t>U17-Lo</t>
+  </si>
+  <si>
+    <t>Kandiudults muy profundos</t>
+  </si>
+  <si>
+    <t>U18-Lo</t>
+  </si>
+  <si>
+    <t>U19-Lo</t>
+  </si>
+  <si>
+    <t>Tropaquults</t>
+  </si>
+  <si>
+    <t>U20-Lo</t>
+  </si>
+  <si>
+    <t>Haplohumults profundos</t>
+  </si>
+  <si>
+    <t>U21-Lo</t>
+  </si>
+  <si>
+    <t>Kanhapludults profundos</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults moderadamente  esqueleticos</t>
+  </si>
+  <si>
+    <t>U22-Lo</t>
+  </si>
+  <si>
+    <t>Kadihumults</t>
+  </si>
+  <si>
+    <t>U23-Lo</t>
+  </si>
+  <si>
+    <t>Kanhapludult</t>
+  </si>
+  <si>
+    <t>U25-Lo</t>
+  </si>
+  <si>
+    <t>U26-Lo</t>
+  </si>
+  <si>
+    <t>U27-Lo</t>
+  </si>
+  <si>
+    <t>Kandiustults moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>U29-Lo</t>
+  </si>
+  <si>
+    <t>Kandiudults inundables</t>
+  </si>
+  <si>
+    <t>Kandiaquults</t>
+  </si>
+  <si>
+    <t>U31-Lo</t>
+  </si>
+  <si>
+    <t>Kanhapludults moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>U32-Lo</t>
+  </si>
+  <si>
+    <t>Kandihumults moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>U3-Va</t>
+  </si>
+  <si>
+    <t>Kanhapludults inundables</t>
+  </si>
+  <si>
+    <t>U4-Va</t>
+  </si>
+  <si>
+    <t>U6a-Va</t>
+  </si>
+  <si>
+    <t>Klanhaplohumults moderadanente esqueleticos</t>
+  </si>
+  <si>
+    <t>Kanhaplustults moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>Kanhaplustults inundables</t>
+  </si>
+  <si>
+    <t>U6-Va</t>
+  </si>
+  <si>
+    <t>Kandiuquults inundables</t>
+  </si>
+  <si>
+    <t>U7a-Lo</t>
+  </si>
+  <si>
+    <t>U7b-Lo</t>
+  </si>
+  <si>
+    <t>U7-Pe</t>
+  </si>
+  <si>
+    <t>U7-Pl</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults moderadamente esqueletico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandihumults </t>
+  </si>
+  <si>
+    <t>Kanhaplaquults</t>
+  </si>
+  <si>
+    <t>U8-Pe</t>
+  </si>
+  <si>
+    <t>UA1-Lo</t>
+  </si>
+  <si>
+    <t>Kandiustults  mmoderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>Kandihumults moderadamente esqueleteicos</t>
+  </si>
+  <si>
+    <t>Kandiustalfs ligereramente esequeletico</t>
+  </si>
+  <si>
+    <t>UA1-Pe</t>
+  </si>
+  <si>
+    <t>Kanhaplustults profundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandiustalfs </t>
+  </si>
+  <si>
+    <t>UA-Pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanhaplustults esqueleticos </t>
+  </si>
+  <si>
+    <t>Haplustalfs moderadamente esqueleticos</t>
+  </si>
+  <si>
+    <t>UAR1a-Lo</t>
+  </si>
+  <si>
+    <t>Kanhaplustults esqueleriticos</t>
+  </si>
+  <si>
+    <t>Hasplustalfs esqueleticos</t>
+  </si>
+  <si>
+    <t>Aloramientos rocosos</t>
+  </si>
+  <si>
+    <t>UAR1-Lo</t>
+  </si>
+  <si>
+    <t>UE10-Lo</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults ligeramente esqueleticos</t>
+  </si>
+  <si>
+    <t>UE1a-Al</t>
+  </si>
+  <si>
+    <t>UE1a-AlM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleudults </t>
+  </si>
+  <si>
+    <t>Troporthents  superficiales</t>
+  </si>
+  <si>
+    <t>UE1-AlM</t>
+  </si>
+  <si>
+    <t>UE1a-Lo</t>
+  </si>
+  <si>
+    <t>UE1b-Al</t>
+  </si>
+  <si>
+    <t>Troporthents  muy superficiales</t>
+  </si>
+  <si>
+    <t>UE1b-Lo</t>
+  </si>
+  <si>
+    <t>UE1c-Lo</t>
+  </si>
+  <si>
+    <t>Kandiudults ligeramente esqueleticos</t>
+  </si>
+  <si>
+    <t>UE1-Lo</t>
+  </si>
+  <si>
+    <t>UE1-Va</t>
+  </si>
+  <si>
+    <t>Paleudults esqueleticos</t>
+  </si>
+  <si>
+    <t>Tropudults ligeramente esqueleticos</t>
+  </si>
+  <si>
+    <t>UE2-Lo</t>
+  </si>
+  <si>
+    <t>Tropudults esqueleticos</t>
+  </si>
+  <si>
+    <t>UE3-Lo</t>
+  </si>
+  <si>
+    <t>UE4a-Al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropudults </t>
+  </si>
+  <si>
+    <t>UE4b-Al</t>
+  </si>
+  <si>
+    <t>UE4-Lo</t>
+  </si>
+  <si>
+    <t>UE6-Al</t>
+  </si>
+  <si>
+    <t>UE7-Lo</t>
+  </si>
+  <si>
+    <t>UE9-Lo</t>
+  </si>
+  <si>
+    <t>UEI1-Va</t>
+  </si>
+  <si>
+    <t>Humitropepts inundables</t>
+  </si>
+  <si>
+    <t>UER1-Al</t>
+  </si>
+  <si>
+    <t>Tropudults  esqueleticos</t>
+  </si>
+  <si>
+    <t>UER1-Lo</t>
+  </si>
+  <si>
+    <t>UER1-Pm</t>
+  </si>
+  <si>
+    <t>UER2-Al</t>
+  </si>
+  <si>
+    <t>UER2-Lo</t>
+  </si>
+  <si>
+    <t>UER2-Mo</t>
+  </si>
+  <si>
+    <t>Kandihumults, moderadamente esquelético</t>
+  </si>
+  <si>
+    <t>Ustorthents muy esqueleticos</t>
+  </si>
+  <si>
+    <t>UER3-Al</t>
+  </si>
+  <si>
+    <t>UER3-Lo</t>
+  </si>
+  <si>
+    <t>UER4-Al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanhaplohumults </t>
+  </si>
+  <si>
+    <t>UER4-Mo</t>
+  </si>
+  <si>
+    <t>UER5a-Lo</t>
+  </si>
+  <si>
+    <t>UER5-Lo</t>
+  </si>
+  <si>
+    <t>UER5-Mo</t>
+  </si>
+  <si>
+    <t>UER6-Lo</t>
+  </si>
+  <si>
+    <t>UER9a-Lo</t>
+  </si>
+  <si>
+    <t>UER9-Lo</t>
+  </si>
+  <si>
+    <t>UI1-Al</t>
+  </si>
+  <si>
+    <t>Humitropepts</t>
+  </si>
+  <si>
+    <t>UI1-Va</t>
+  </si>
+  <si>
+    <t>Dystropepts inundables</t>
+  </si>
+  <si>
+    <t>UI2-Al</t>
+  </si>
+  <si>
+    <t>UI2-Va</t>
+  </si>
+  <si>
+    <t>UI3-Al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanhapludults </t>
+  </si>
+  <si>
+    <t>UI3a-Va</t>
+  </si>
+  <si>
+    <t>Kanhapludutlts</t>
+  </si>
+  <si>
+    <t>UI3-Va</t>
+  </si>
+  <si>
+    <t>Tropaquepts moderadamente profundos</t>
+  </si>
+  <si>
+    <t>UI4-Al</t>
+  </si>
+  <si>
+    <t>UI5-Al</t>
+  </si>
+  <si>
+    <t>UI6-Al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humitropepts </t>
+  </si>
+  <si>
+    <t>UI7-Al</t>
+  </si>
+  <si>
+    <t>Kanhapludults muy esqueleticos</t>
+  </si>
+  <si>
+    <t>UIE1a-Pm</t>
+  </si>
+  <si>
+    <t>Dystropepts superficiales</t>
+  </si>
+  <si>
+    <t>UIE1-Pm</t>
+  </si>
+  <si>
+    <t>UIE1-Va</t>
+  </si>
+  <si>
+    <t>Tropaquepts</t>
+  </si>
+  <si>
+    <t>UO-Pe</t>
+  </si>
+  <si>
+    <t>UR12-Lo</t>
+  </si>
+  <si>
+    <t>UR1a-Al</t>
+  </si>
+  <si>
+    <t>UR1-Lo</t>
+  </si>
+  <si>
+    <t>UR1-Mo</t>
+  </si>
+  <si>
+    <t>Kanhapludults moderadamente profundo</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults moderadamente profundo</t>
+  </si>
+  <si>
+    <t>UR1-Pe</t>
+  </si>
+  <si>
+    <t>UR2-Lo</t>
+  </si>
+  <si>
+    <t>Kanhapludults superficiales</t>
+  </si>
+  <si>
+    <t>UR2-Mo</t>
+  </si>
+  <si>
+    <t>UR2-Pe</t>
+  </si>
+  <si>
+    <t>Kanhaplustults moderadamente esqueletico</t>
+  </si>
+  <si>
+    <t>Kanhaplustults superficiales</t>
+  </si>
+  <si>
+    <t>UR4-Lo</t>
+  </si>
+  <si>
+    <t>URE1a-Lo</t>
+  </si>
+  <si>
+    <t>URE1-Lo</t>
+  </si>
+  <si>
+    <t>Kanhaplohumults moderadamene profundos</t>
+  </si>
+  <si>
+    <t>URE1-Mo</t>
+  </si>
+  <si>
+    <t>Kanhapludults esqueletico</t>
+  </si>
+  <si>
+    <t>Afloramiento rocosos</t>
+  </si>
+  <si>
+    <t>URE2a-Lo</t>
+  </si>
+  <si>
+    <t>Kandiustults esqueleticos</t>
+  </si>
+  <si>
+    <t>URE2-Lo</t>
+  </si>
+  <si>
+    <t>URE3-Lo</t>
+  </si>
+  <si>
+    <t>URO1-Lo</t>
+  </si>
+  <si>
+    <t>Kandiustox</t>
+  </si>
+  <si>
+    <t>URO-Pe</t>
+  </si>
+  <si>
+    <t>UR-Pe</t>
   </si>
 </sst>
 </file>
@@ -424,7 +1187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,8 +1367,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -720,6 +1489,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -765,7 +1549,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -773,11 +1557,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1126,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,732 +1958,778 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>79</v>
       </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C59" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C60" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1886,4 +2737,2367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D171"/>
+  <sheetViews>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>